--- a/Similarity_Matching/Similarity_Matching/relevant_entities_relations.xlsx
+++ b/Similarity_Matching/Similarity_Matching/relevant_entities_relations.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -498,22 +498,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Computational Material Science', 'computational materials science', 'Computational materials science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'Materials Platform for Data Science', 'Computational materials science', 'Computational Materials Science']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
     </row>
@@ -540,22 +540,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.org/dc/terms/bibliographicCitation', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation']</t>
+          <t>['https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'dcterms:bibliographicCitation', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:relatedProject', 'mwo:relatedParticipantProject', 'nfdicore:fundingProject', 'mwo:hasRelatedResource', 'mwo:hasExpertiseIn', 'mwo:hasDocumentation', 'mwo:hasWorkPackage', 'dcterms:bibliographicCitation', 'nfdicore:parentOrganisation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Essential Source of Schemas and Examples (ESSE)', 'Elemental Multiperspective Material Ontology (EMMO)', 'ruby', 'Peter']</t>
+          <t>['ruby', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Julia', 'Elemental Multiperspective Material Ontology (EMMO)', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E837572', 'http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E17291']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E837572', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E1126751', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E842754']</t>
         </is>
       </c>
     </row>
@@ -582,22 +582,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation']</t>
+          <t>['http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2002/07/owl#sameAs', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/isOnline']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'ns2:IAO_0000114', 'mwo:hasAffiliation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasContributor', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'dcterms:bibliographicCitation', 'owl:annotatedSource', 'ns2:IAO_0000119', 'ns2:IAO_0000114', 'mwo:hasAffiliation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Framework for curation and distribution of reference datasets', 'datasets', 'dataset', 'data analysis', 'data portal', 'Image data']</t>
+          <t>['Image data', 'Framework for curation and distribution of reference datasets', 'data portal', 'datasets', 'data analysis', 'dataset']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'http://demo.fiz-karlsruhe.de/matwerk/E68897', 'http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1196832', 'http://demo.fiz-karlsruhe.de/matwerk/E1172216', 'http://demo.fiz-karlsruhe.de/matwerk/E1248382', 'http://demo.fiz-karlsruhe.de/matwerk/E68897', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
         </is>
       </c>
     </row>
@@ -624,22 +624,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purl.org/dc/terms/isPartOf', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasWorkPackage', 'mwo:hasExpertiseIn', 'nfdicore:fundingProject', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:hasDiscipline', 'nfdicore:parentOrganisation', 'mwo:relatedTaskArea', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Ebrahim Norouzi', 'Ahmad Zainul Ihsan', 'Hosni Idrissi', 'Mirza Mohtashim Alam']</t>
+          <t>['Dr. Amir Laadhar', 'Mirza Mohtashim Alam', 'Ahmad Zainul Ihsan', 'Hosni Idrissi', 'Ebrahim Norouzi']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1245566', 'http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E31382', 'http://www.wikidata.org/entity/Q118232637']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E10181', 'http://demo.fiz-karlsruhe.de/matwerk/E15879', 'http://demo.fiz-karlsruhe.de/matwerk/E8876', 'http://demo.fiz-karlsruhe.de/matwerk/E31382', 'http://demo.fiz-karlsruhe.de/matwerk/E1245566']</t>
         </is>
       </c>
     </row>
@@ -666,22 +666,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/emailAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalAddress', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://www.w3.org/2000/01/rdf-schema#comment', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000119', 'https://schema.org/datePublished', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://xmlns.com/foaf/0.1/surname', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'rdfs:domain', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:emailAddress', 'mwo:hasPostalAddress', 'mwo:hasWebsite', 'mwo:hasPostalCode', 'nfdicore:fileExtension', 'rdfs:comment', 'mwo:hasContactPoint', 'rdfs:domain', 'mwo:hasRepository', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['data portal', 'ParaView', 'paraview', 'dataset']</t>
+          <t>['paraview', 'data portal', 'Standardised documentation of Simulations (MODA)', 'ParaView', 'dataset']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E419156', 'http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://www.wikidata.org/entity/Q474635', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1231097', 'http://demo.fiz-karlsruhe.de/matwerk/E1164576', 'http://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E419156']</t>
         </is>
       </c>
     </row>
@@ -708,22 +708,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'https://schema.org/citation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasAffiliation', 'ns2:IAO_0000114', 'nfdicore:parentOrganisation', 'schema:citation', 'mwo:hasDocumentation', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'skos:definition', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Volker Hofmann', 'Dr. Tilmann Hickel', 'Tilmann Hickel', 'Niklas Siemer', 'Dr.  Volker Hofmann']</t>
+          <t>['Prof. Dr.  Jörg Neugebauer', 'Markus Schilling', 'Dr.  Volker Hofmann', 'Niklas Siemer', 'Dr. Tilmann Hickel']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://www.wikidata.org/entity/Q45899344', 'http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://demo.fiz-karlsruhe.de/matwerk/E14531', 'http://www.wikidata.org/entity/Q84561074']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E33641', 'http://demo.fiz-karlsruhe.de/matwerk/E9912', 'http://demo.fiz-karlsruhe.de/matwerk/E14531', 'http://demo.fiz-karlsruhe.de/matwerk/E20504', 'http://demo.fiz-karlsruhe.de/matwerk/E21101']</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Molecular Dynamics</t>
+          <t>Molecular Dynamics" Software?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -750,22 +750,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000117', 'http://xmlns.com/foaf/0.1/firstName']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'nfdicore:programmingLanguage', 'ns4:hasDefinition', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'schema:citation', 'ns2:IAO_0000114', 'nfdicore:programmingLanguage', 'ns4:hasDefinition', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Computational Chemistry', 'Visual Molecular Dynamics', 'Quantum Chemistry', 'molecular dynamics']</t>
+          <t>['controlled vocabulary', 'Atomic Simulation Recipes', 'Atomistic simulations', 'Computational Materials Repository (CMR)', 'atomistic simulations', 'OpenBIS', 'Workshop: From Electrons to Phase Diagrams', 'PubChem', 'Graphical Interface for Materials Simulations', 'Physical Information File (PIF)', 'Cluster Expansion in Atomic Simulation Environment', 'molecular dynamics']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://www.wikidata.org/entity/Q7936565', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E63482', 'http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1158482', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://demo.fiz-karlsruhe.de/matwerk/E1021307', 'http://demo.fiz-karlsruhe.de/matwerk/E1246908', 'http://demo.fiz-karlsruhe.de/matwerk/E1245300', 'http://demo.fiz-karlsruhe.de/matwerk/E488579', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000114']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purl.org/dc/terms/bibliographicCitation']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:usesTechnology', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:requiredTool', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'mwo:instrumentModel', 'nfdicore:relatedProject', 'schema:operatingSystem', 'mwo:usesTechnology', 'ns2:IAO_0000114', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Brunswick', 'AML', 'Crystallography Open Database (COD)', 'Pizza.py Toolkit', 'Extensible Self-optimizing Phase Equilibria Infrastructure', 'Graphical Interface for Materials Simulations', 'abbreviation', 'Yet another force field', 'PMD Core Ontology', 'freud', 'MDTraj', 'Molecular Dynamics (MD)', 'OVITO basic', 'Silicon']</t>
+          <t>['MDTraj', 'Pizza.py Toolkit', 'Silicon', 'Extensible Self-optimizing Phase Equilibria Infrastructure', 'freud', 'OVITO basic', 'AML', 'PMD Core Ontology', 'acronym', 'Graphical Interface for Materials Simulations', 'Molecular Dynamics (MD)', 'Crystallography Open Database (COD)', 'abbreviation', 'Yet another force field']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E481691', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E473879', 'http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://demo.fiz-karlsruhe.de/matwerk/E482672', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E461321', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E491546']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E469997', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E491546', 'http://demo.fiz-karlsruhe.de/matwerk/E481691', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E473879', 'http://demo.fiz-karlsruhe.de/matwerk/E482672', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E461321', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E61379']</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'https://schema.org/operatingSystem', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://www.w3.org/2000/01/rdf-schema#label']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'owl:allValuesFrom', 'rdf:rest', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasWorkPackage', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'mwo:conformsToSpecification', 'schema:operatingSystem', 'owl:allValuesFrom', 'rdf:rest', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Computational Material Science', 'computational materials science', 'Computational materials science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'Polymer Genome', 'Computational Chemistry', 'freud', 'The Materials Data Facility (MDF)', 'matminer', 'pycalphad', 'Computational Materials Science', 'Computational materials science', 'Pyiron', 'Simmate', 'MGI JSON Schema']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1066071', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E492537', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
         </is>
       </c>
     </row>
@@ -876,22 +876,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2000/01/rdf-schema#seeAlso', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://www.geneontology.org/formats/oboInOwl#hasRelatedSynonym', 'https://schema.org/citation']</t>
+          <t>['http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purl.obolibrary.org/obo/IAO_0000116', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'ns4:hasRelatedSynonym', 'schema:citation']</t>
+          <t>['owl:annotatedSource', 'dcterms:bibliographicCitation', 'rdfs:seeAlso', 'ns2:IAO_0000116', 'dcterms:description', 'mwo:description', 'owl:annotatedTarget', 'ns4:hasRelatedSynonym', 'schema:citation', 'rdf:type']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Pyrho', 'Pyiron', 'pyDOE', 'cython', 'Cython', 'http://pyiron.org/swimm-workshop-2021/README.html']</t>
+          <t>['pyDOE', 'cython', 'Pyretis', 'Pyrho', 'https://github.com/pyiron/potentials-workshop-2021', 'Pyiron']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E405551', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://www.wikidata.org/entity/Q975594', 'http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E845351']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E598872', 'http://demo.fiz-karlsruhe.de/matwerk/E410061', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E457491', 'http://demo.fiz-karlsruhe.de/matwerk/E475826', 'http://demo.fiz-karlsruhe.de/matwerk/E845351']</t>
         </is>
       </c>
     </row>
@@ -918,22 +918,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Mechanical Behavior of Interface-Dominated Materials', 'hyperelastic materials', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05', 'Image based prediction of the heat conduction tensor', 'Homogenization of elastic', 'Analytic bond-order potentials']</t>
+          <t>['The ITAP Molecular Dynamics Program', 'NGLview', 'hyperelastic materials', 'Image based prediction of the heat conduction tensor', 'pacemaker', 'Interatomic potentials repository (NIST)', 'Homogenization of elastic', 'C.A. Becker, F. Tavazza, Z.T. Trautt, and R.A. Buarque de Macedoc (2013), "Considerations for choosing and using force fields and interatomic potentials in materials science and engineering," Current Opinion in Solid State and Materials Science, 17, 277-283. DOI: 10.1016/j.cossms.2013.10.001 L.M. Hale, Z.T. Trautt, and C.A. Becker (2018), "Evaluating variability with atomistic simulations: the effect of potential and calculation methodology on the modeling of lattice and elastic constants," Modelling and Simulation in Materials Science and Engineering, 26, 055003. DOI: 10.1088/1361-651X/aabc05', 'Workshop: Workflows for atomistic simulations', 'Analytic bond-order potentials', 'mendeleev', 'potentials repository', 'Mechanical Behavior of Interface-Dominated Materials', 'The Science Hub for Atomic-scale Research at Chalmers']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E969137', 'http://demo.fiz-karlsruhe.de/matwerk/E47361', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E506516', 'http://demo.fiz-karlsruhe.de/matwerk/E1014177', 'http://purls.helmholtz-metadaten.de/mwo/PotentialsRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E47361', 'http://demo.fiz-karlsruhe.de/matwerk/E484637', 'http://demo.fiz-karlsruhe.de/matwerk/E1245850', 'http://demo.fiz-karlsruhe.de/matwerk/E67796', 'http://demo.fiz-karlsruhe.de/matwerk/E40341', 'http://demo.fiz-karlsruhe.de/matwerk/E448932', 'http://demo.fiz-karlsruhe.de/matwerk/E417329', 'http://demo.fiz-karlsruhe.de/matwerk/E1245321', 'http://demo.fiz-karlsruhe.de/matwerk/E969137', 'http://demo.fiz-karlsruhe.de/matwerk/E499502', 'http://demo.fiz-karlsruhe.de/matwerk/E511556']</t>
         </is>
       </c>
     </row>
@@ -955,27 +955,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension', 'has software', 'has annotated source ']</t>
+          <t>['uses software', 'has example of usage', 'has repository', 'required tool', 'uses method', 'uses technology', 'has file Extension', 'has annotated source ', 'has programming Language ']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.w3.org/2002/07/owl#annotatedSource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.obolibrary.org/obo/IAO_0000117']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'nfdicore:Software', 'owl:annotatedSource', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'ns2:IAO_0000112', 'mwo:hasRepository', 'mwo:requiredTool', 'mwo:usesMethod', 'mwo:usesTechnology', 'nfdicore:fileExtension', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Java', 'measurement processing', 'Materials Commons', 'Materials Cloud', 'metadata ', 'Metadata', 'Python scripts', 'Python', 'python']</t>
+          <t>['measurement processing', 'Java', 'py4vasp', 'icet', 'Calphy', 'Materials Cloud', 'OpenPathSampling', 'matminer', 'Linux', 'Python', 'Materials Commons', 'Cluster Expansion in Atomic Simulation Environment', 'Metadata', 'Plant movement', 'Python scripts', 'EQ2PC', 'python', 'Pyscal']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://www.wikidata.org/entity/Q251', 'http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E38951']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://demo.fiz-karlsruhe.de/matwerk/E832406', 'http://demo.fiz-karlsruhe.de/matwerk/E1245727', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://www.ebi.ac.uk/swo/SWO_0000022', 'http://demo.fiz-karlsruhe.de/matwerk/E414596', 'http://demo.fiz-karlsruhe.de/matwerk/E489567', 'http://demo.fiz-karlsruhe.de/matwerk/E836279', 'http://demo.fiz-karlsruhe.de/matwerk/E69636', 'http://demo.fiz-karlsruhe.de/matwerk/E1198379', 'http://demo.fiz-karlsruhe.de/matwerk/E833696', 'http://demo.fiz-karlsruhe.de/matwerk/E46754', 'http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://demo.fiz-karlsruhe.de/matwerk/E411872', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E488579']</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Jupyter notebooks', 'electronic lab notebook', 'Experimental Workflow', 'Laboratory Instrument', 'Atomic Simulation Environment']</t>
+          <t>['Atomic Simulation Environment', 'Laboratory Instrument', 'Jupyter notebooks', 'Experimental Workflow', 'electronic lab notebook']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow', 'https://w3id.org/skgo/modsci#LaboratoryInstrument', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E460362']</t>
+          <t>['https://w3id.org/skgo/modsci#LaboratoryInstrument', 'http://demo.fiz-karlsruhe.de/matwerk/E460362', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E1199927', 'http://purls.helmholtz-metadaten.de/mwo/ExperimentalWorkflow']</t>
         </is>
       </c>
     </row>
@@ -1039,27 +1039,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['has software', 'uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website', 'has programming Language ']</t>
+          <t>['uses software', 'required tool', 'has operating system ', 'uses technology', 'has instrument model', 'has file Extension', 'has website', 'has programming Language ', 'has work package']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/operatingSystem', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.obolibrary.org/obo/IAO_0000117', 'https://nfdi.fiz-karlsruhe.de/ontology/example']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns3:SWO_0000082', 'mwo:requiredTool', 'schema:operatingSystem', 'mwo:usesTechnology', 'mwo:instrumentModel', 'nfdicore:fileExtension', 'mwo:hasWebsite', 'nfdicore:programmingLanguage', 'mwo:hasWorkPackage', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Brunswick', 'Quantum Chemistry', 'molecular dynamics', 'abbreviation', 'Silicon', 'Computational Chemistry', 'Visual Molecular Dynamics', 'Crystallography Open Database (COD)', 'Molecular Dynamics (MD)']</t>
+          <t>['Silicon', 'Computational Chemistry', 'FitSNAP', 'freud', 'acronym', 'QuickFF', 'matminer', 'Vienna Ab initio Simulation Package', 'Crystallography Open Database (COD)', 'Molecular Dynamics (MD)', 'computational mechanics', 'dynasor', 'abbreviation', 'molecular dynamics', 'Visual Molecular Dynamics', 'Yet another force field', 'Simmate', 'Quantum Chemistry']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://www.wikidata.org/entity/Q7936565', 'http://www.wikidata.org/entity/Q2773', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E465167']</t>
+          <t>['http://purl.obolibrary.org/obo/NCIT_C42610', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://demo.fiz-karlsruhe.de/matwerk/E616496', 'http://demo.fiz-karlsruhe.de/matwerk/E483654', 'http://demo.fiz-karlsruhe.de/matwerk/E38676', 'http://demo.fiz-karlsruhe.de/matwerk/E70752', 'http://demo.fiz-karlsruhe.de/matwerk/E496511', 'http://demo.fiz-karlsruhe.de/matwerk/E61379', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E425582', 'http://demo.fiz-karlsruhe.de/matwerk/E487592', 'http://demo.fiz-karlsruhe.de/matwerk/E505511', 'http://demo.fiz-karlsruhe.de/matwerk/E465167', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E36512', 'http://demo.fiz-karlsruhe.de/matwerk/E485621']</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['has ontology', 'has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation', 'has definition source']</t>
+          <t>['has bibliographic citation', 'has  description', 'has description', 'has definition', 'has definition', 'has semantic expressivity', 'has elucidation', 'has definition source', 'has documentation']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://purl.obolibrary.org/obo/IAO_0000119']</t>
+          <t>['http://www.w3.org/2002/07/owl#sameAs', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['nfdicore:Ontology', 'dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'ns2:IAO_0000119']</t>
+          <t>['dcterms:bibliographicCitation', 'dcterms:description', 'mwo:description', 'ns4:hasDefinition', 'skos:definition', 'nfdicore:semanticExpressivity', 'ns2:IAO_0000600', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'rdf:type']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Computational Materials Science', 'Nanocrystalline materials', 'computational materials science', 'Computational materials science']</t>
+          <t>['eNanoMapper ontology', 'computational materials science', 'Computational Material Sample Ontology', 'HybriD³ materials database', 'Computational materials science', 'Knowledge Graphs (openHPI Massive Open Online Course (MOOC))', 'Computational Materials Science', 'Materials Design Ontology (MDO)', 'Nanocrystalline materials', 'SimPhoNy', 'Materials And Molecules Basic Ontology (MAMBO)', 'MaterialsMine (MM)', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E43779', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://www.wikidata.org/entity/Q85753722']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1245261', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E43779', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1137279', 'http://demo.fiz-karlsruhe.de/matwerk/E514592', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154']</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1138,12 +1138,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>["['Dusseldorf Advanced Material Simulation Kit (DAMASK)',  'Elk',  'Elk',  'Novel Materials Discovery (NOMAD)',  'NOMAD]"]</t>
+          <t>['Silicon', 'Novel Materials Discovery (NOMAD)', 'Dryad', 'Elk', 'NOMAD']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E858396', 'http://demo.fiz-karlsruhe.de/matwerk/E456536', 'http://www.wikidata.org/entity/Q114833975', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E444212']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1007072', 'http://demo.fiz-karlsruhe.de/matwerk/E858396', 'http://demo.fiz-karlsruhe.de/matwerk/E1028462', 'http://demo.fiz-karlsruhe.de/matwerk/E444212']</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://nfdi.fiz-karlsruhe.de/ontology/location', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.org/dc/terms/description', 'http://purl.org/dc/terms/license', 'http://xmlns.com/foaf/0.1/surname', 'http://purl.org/dc/elements/1.1/contributor', 'http://purl.obolibrary.org/obo/IAO_0000118']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:mainTaskArea', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'mwo:hasWebsite', 'ns2:IAO_0000119', 'owl:annotatedSource', 'rdfs:domain', 'nfdicore:location', 'mwo:hasContactPoint', 'mwo:mainTaskArea', 'nfdicore:fileExtension', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Computational Material Sample Ontology', 'Ontologies for Materials Science', 'Computational materials science', 'Computational Materials Science', 'Computational Material Science']</t>
+          <t>['Computational Material Science', 'computational materials science', 'MatPortal', 'Ontologies for Materials Science', 'materials database', 'Computational Material Sample Ontology', 'Computational Materials Science', 'Materials Design Ontology (MDO)', 'Materials And Molecules Basic Ontology (MAMBO)', 'MGI JSON Schema', 'MaterialsMine (MM)', 'Simmate', 'Essential Source of Schemas and Examples (ESSE)']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E49517', 'http://demo.fiz-karlsruhe.de/matwerk/E71126']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E67431', 'http://demo.fiz-karlsruhe.de/matwerk/E1128252', 'http://demo.fiz-karlsruhe.de/matwerk/E1131257', 'http://demo.fiz-karlsruhe.de/matwerk/E594506', 'http://demo.fiz-karlsruhe.de/matwerk/E71126', 'http://demo.fiz-karlsruhe.de/matwerk/E42042', 'http://demo.fiz-karlsruhe.de/matwerk/E1143317', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1161527', 'http://demo.fiz-karlsruhe.de/matwerk/E1152404']</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'https://schema.org/operatingSystem', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'https://schema.org/citation']</t>
+          <t>['http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/depiction', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:requiredTool', 'schema:citation', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:instrumentModel', 'rdf:first', 'mwo:hasDocumentation', 'ns4:hasDefinition', 'skos:definition', 'schema:operatingSystem', 'ns2:IAO_0000114', 'mwo:requiredTool', 'schema:citation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['acronym', 'Instrument', 'APT analysis using CompositionSpace and pyiron', 'Silicon', 'Crystallography Open Database (COD)', 'SIRIUS']</t>
+          <t>['Silicon', 'SIRIUS', 'acronym', 'Crystallography Open Database (COD)', 'APT analysis using CompositionSpace and pyiron', 'Instrument']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E542321', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'https://w3id.org/skgo/modsci#Instrument']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E542321', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1246677', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166']</t>
         </is>
       </c>
     </row>
@@ -1254,22 +1254,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['project', 'acronym', 'Instrument', 'X-ray imaging', 'X-ray computed tomography', 'computed tomography', 'Tomography and Microstructure-based Modelling (Tomography)', 'Atom Probe Tomography', 'Project']</t>
+          <t>['X-ray computed tomography', 'Tomography and Microstructure-based Modelling (Tomography)', 'acronym', 'Atom Probe Tomography', 'X-ray imaging', 'project', 'X-ray microscopy', 'Project', 'Instrument']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://www.wikidata.org/entity/Q32566', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://schema.org/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E1248178']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1248178', 'http://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://schema.org/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'https://w3id.org/skgo/modsci#Instrument', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E62426', 'https://nfdi.fiz-karlsruhe.de/ontology/Project', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
         </is>
       </c>
     </row>
@@ -1296,22 +1296,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://nfdi.fiz-karlsruhe.de/ontology/fundingProject', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'https://schema.org/dateCreated', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://www.w3.org/2002/07/owl#sameAs', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/description']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'ns2:IAO_0000119', 'mwo:hasExpertiseIn', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'mwo:hasDocumentation', 'nfdicore:relatedProject', 'nfdicore:fundingProject', 'nfdicore:parentOrganisation', 'dcterms:bibliographicCitation', 'ns2:IAO_0000119', 'mwo:hasExpertiseIn', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['ontology alignment', 'The MatWerk ontology', 'ontology matching', 'Ontologies for Materials Science', 'ontology', 'PMD Core Ontology']</t>
+          <t>['The MatWerk ontology', 'MatPortal', 'ontology matching', 'Ontologies for Materials Science', 'ontology', 'glossary', 'Density functional theory', 'Material Science and Engineering Ontology (MSEO)']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'http://www.wikidata.org/entity/Q4339878', 'http://demo.fiz-karlsruhe.de/matwerk/E1140296', 'http://purls.helmholtz-metadaten.de/mwo/']</t>
+          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E37586', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1247883', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1138787', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E613172']</t>
         </is>
       </c>
     </row>
@@ -1333,27 +1333,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has software', 'has website', 'has domain', 'has postal code', 'has email address ']</t>
+          <t>['has url', 'has file Extension', 'has repository', 'has keyword ', 'has website', 'has domain', 'has postal code', 'has email address ', 'has object type']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['http://nfdi.fiz-karlsruhe.de/ontology/url', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/keyword', 'https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'http://www.w3.org/2000/01/rdf-schema#domain', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/emailAddress']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRORID', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2000/01/rdf-schema#subClassOf', 'http://nfdi.fiz-karlsruhe.de/ontology/parentOrganisation', 'http://purl.org/dc/terms/description', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'nfdicore:Software', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:emailAddress', 'mwo:description', 'dcterms:description']</t>
+          <t>['nfdicore:url', 'nfdicore:fileExtension', 'mwo:hasRepository', 'mwo:keyword', 'mwo:hasWebsite', 'rdfs:domain', 'mwo:hasPostalCode', 'mwo:emailAddress', 'nfdicore:objectType', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Materials Platform for Data Science', 'Materials Cloud', 'MAX (MAterials design at the eXascale)', 'Materials Project API', 'HybriD³ materials database']</t>
+          <t>['Materials Platform for Data Science', 'Materials Cloud', 'MAX (MAterials design at the eXascale)', 'Materials Project API', 'Python Materials Genomics', 'HybriD³ materials database']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E7107', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E478754', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642', 'http://demo.fiz-karlsruhe.de/matwerk/E1063154', 'http://demo.fiz-karlsruhe.de/matwerk/E7107']</t>
         </is>
       </c>
     </row>
@@ -1380,22 +1380,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['specification', 'acronym', 'software', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'Silicon']</t>
+          <t>['Silicon', 'programming language', 'py4vasp', 'R. S. Elliott and E. B. Tadmor, "Knowledgebase of Interatomic Models (KIM) Application Programming Interface (API)", OpenKIM (2011). doi:10.25950/ff8f563a', 'icet', 'software', 'acronym', 'OpenPathSampling', 'matminer', 'pycp2k', 'CompositionSpace', 'specification', 'Pyscal']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://www.ebi.ac.uk/swo/SWO_0000001']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E476801', 'http://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://www.ebi.ac.uk/swo/SWO_0000001', 'http://demo.fiz-karlsruhe.de/matwerk/E466131', 'http://demo.fiz-karlsruhe.de/matwerk/E497507', 'http://nfdi.fiz-karlsruhe.de/ontology/Specification', 'http://demo.fiz-karlsruhe.de/matwerk/E489567', 'http://nfdi.fiz-karlsruhe.de/ontology/ProgrammingLanguage', 'http://demo.fiz-karlsruhe.de/matwerk/E962192', 'http://demo.fiz-karlsruhe.de/matwerk/E413687', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1246567', 'http://demo.fiz-karlsruhe.de/matwerk/E1247879', 'http://demo.fiz-karlsruhe.de/matwerk/E474852']</t>
         </is>
       </c>
     </row>
@@ -1422,22 +1422,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purl.org/dc/terms/bibliographicCitation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000114', 'http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition']</t>
+          <t>['https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://xmlns.com/foaf/0.1/firstName']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition']</t>
+          <t>['mwo:hasDocumentation', 'dcterms:bibliographicCitation', 'schema:citation', 'ns2:IAO_0000114', 'dcterms:description', 'mwo:description', 'mwo:relatedParticipantProject', 'ns2:IAO_0000600', 'ns4:hasDefinition', 'rdf:type']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['MatDB', 'Organic Materials Database (OMDB)', 'is online', 'MatDB Online', 'MatPortal']</t>
+          <t>['Phonon database at Kyoto university', 'MatPortal', 'Materials Platform for Data Science', 'MatDB Online', 'MatDB', 'NOMAD Metainfo', 'has repository', 'Organic Materials Database (OMDB)', 'Workshop: Simulation workflows in materials modelling', 'Electronic Structure Common Data Format (ESCDF)', 'Metadata schemes for materials science data', 'is online', 'Materials Data Repository']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1039962', 'http://demo.fiz-karlsruhe.de/matwerk/E1146342', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1073381', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://demo.fiz-karlsruhe.de/matwerk/E1029896', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/usesMethod', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000111', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000600', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['software repository', 'Proprietary license', 'documentation', 'Proprietary commercial software license', 'Commercial license']</t>
+          <t>['Proprietary license', 'documentation', 'software repository', 'has format', 'Commercial license', 'Proprietary commercial software license']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://purls.helmholtz-metadaten.de/mwo/Documentation', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository', 'http://www.ebi.ac.uk/swo/license/SWO_1000002']</t>
+          <t>['http://www.ebi.ac.uk/swo/license/SWO_1000002', 'http://demo.fiz-karlsruhe.de/matwerk/E770421', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/Documentation', 'http://demo.fiz-karlsruhe.de/matwerk/E748254', 'http://purls.helmholtz-metadaten.de/mwo/SoftwareRepository']</t>
         </is>
       </c>
     </row>
@@ -1506,22 +1506,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://purl.org/dc/elements/1.1/contributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/hasWebsite', 'https://nfdi.fiz-karlsruhe.de/ontology/example', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'ns2:IAO_0000119', 'mwo:usesTechnology', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:conformsToSpecification', 'mwo:belongsTo', 'mwo:requiredTool', 'mwo:hasWorkPackage', 'ns2:IAO_0000112', 'dc:contributor', 'ns3:SWO_0000082', 'ns2:IAO_0000119', 'mwo:usesTechnology', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Materials Cloud', 'controlled vocabulary', 'Materials Project API', 'Materials Commons']</t>
+          <t>['controlled vocabulary', 'The MatWerk ontology', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'has repository', 'OpenBIS', 'Materials Cloud', 'Electronic Structure Common Data Format (ESCDF)', 'Materials Commons', 'Materials Project API', 'Khazana', 'Materials Data Repository']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029']</t>
+          <t>['http://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'https://nfdi.fiz-karlsruhe.de/ontology/ControlledVocabulary', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E1064612', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E547536', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1027029', 'http://demo.fiz-karlsruhe.de/matwerk/E1086602', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
@@ -1543,27 +1543,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository', 'has specification label']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'ns2:BFO_0000179', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Brunswick', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'bond order potentials (BOP)']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'The Materials Data Facility (MDF)', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'bond order potentials (BOP)', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'Crystallography Open Database (COD)', 'BAM', 'Electronic Structure Common Data Format (ESCDF)', 'data portal', 'has creator', 'about material', 'provided resource']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://www.wikidata.org/entity/Q2773', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E4571']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1067531', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/DataPortal', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
@@ -1585,27 +1585,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['has some values from', 'has related resource', 'all values from', 'has dataset', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository', 'related participant project is']</t>
+          <t>['has some values from', 'has related resource', 'all values from', 'has definition source', 'has example of usage', 'has annotated source ', 'has repository', 'related participant project is', 'has annotated target']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['http://www.w3.org/2002/07/owl#someValuesFrom', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://www.w3.org/2002/07/owl#allValuesFrom', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000112', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasWorkPackage', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'nfdicore:Dataset', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:relatedParticipantProject', 'mwo:description', 'dcterms:description']</t>
+          <t>['owl:someValuesFrom', 'mwo:hasRelatedResource', 'owl:allValuesFrom', 'ns2:IAO_0000119', 'ns2:IAO_0000112', 'owl:annotatedSource', 'mwo:hasRepository', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Thermodynamics and kinetics of metallic alloys', 'Mechanics of Materials', 'mechanics of materials', 'Mathematical description of microstructures', 'Deformation processes and mechanical behavior']</t>
+          <t>['Polymer Database (PoLyInfo)', 'Elastic Constant Demo', 'Atomic Simulation Recipes', 'materials database', 'Mathematical description of microstructures', 'Elastic Constant Demo Data', 'Inorganic Material Database (AtomWork)', 'mechanics of materials', 'MatDat', 'Thermodynamics and kinetics of metallic alloys', 'Mechanics of Materials', 'Deformation processes and mechanical behavior', 'Diffusion Database (Kakusan)']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980', 'http://demo.fiz-karlsruhe.de/matwerk/E37857', 'http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E52682']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E1045736', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E37857', 'http://demo.fiz-karlsruhe.de/matwerk/E1041404', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E52682', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://demo.fiz-karlsruhe.de/matwerk/E54629', 'http://demo.fiz-karlsruhe.de/matwerk/E1047182', 'http://demo.fiz-karlsruhe.de/matwerk/E47972', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1245980']</t>
         </is>
       </c>
     </row>
@@ -1627,27 +1627,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['has dataset', 'has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type', 'is about material']</t>
+          <t>['has related resource', 'related participant project is', 'has related Project', 'has annotated target', 'has definition source', 'has annotated source ', 'has object type', 'is about material', 'has repository']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasAcronym', 'http://www.w3.org/2002/07/owl#inverseOf', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:aboutMaterial', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRelatedResource', 'mwo:relatedParticipantProject', 'nfdicore:relatedProject', 'owl:annotatedTarget', 'ns2:IAO_0000119', 'owl:annotatedSource', 'nfdicore:objectType', 'mwo:aboutMaterial', 'mwo:hasRepository', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['X-ray microscopy', 'Confocal microscopy', 'X-ray imaging', 'Atom Probe Tomography', 'Transmission electron microscopy']</t>
+          <t>['Thermo-Calc', 'Computational Material Sample Ontology', 'Atomic Simulation Recipes', 'materials database', 'pyXIT', 'Atom Probe Tomography', 'Material Properties Open Database (MPOD)', 'Confocal microscopy', 'X-ray imaging', 'Soprano', 'Transmission electron microscopy', 'pySTEM', 'X-ray microscopy']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/MaterialsDatabase', 'http://demo.fiz-karlsruhe.de/matwerk/E522732', 'http://demo.fiz-karlsruhe.de/matwerk/E420987', 'http://demo.fiz-karlsruhe.de/matwerk/E1247596', 'http://demo.fiz-karlsruhe.de/matwerk/E468062', 'http://demo.fiz-karlsruhe.de/matwerk/E1246872', 'http://demo.fiz-karlsruhe.de/matwerk/E1068992', 'http://demo.fiz-karlsruhe.de/matwerk/E552776', 'http://demo.fiz-karlsruhe.de/matwerk/E612066', 'http://demo.fiz-karlsruhe.de/matwerk/E451776', 'http://demo.fiz-karlsruhe.de/matwerk/E625404', 'http://demo.fiz-karlsruhe.de/matwerk/E1247323', 'http://demo.fiz-karlsruhe.de/matwerk/E62777']</t>
         </is>
       </c>
     </row>
@@ -1669,27 +1669,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation', 'has postal code', 'has software']</t>
+          <t>['has license', 'has license', 'has affiliation', 'has file Extension', 'has specification label', 'has specification label', 'has documentation', 'has postal code', 'has annotated property']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purl.org/dc/terms/license', 'http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasPostalCode', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://purl.org/dc/terms/format', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/isOnline', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://nfdi.fiz-karlsruhe.de/ontology/example', 'http://www.geneontology.org/formats/oboInOwl#hasDbXref']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['ns3:has_license', 'dcterms:license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:hasPostalCode', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:license', 'ns3:has_license', 'mwo:hasAffiliation', 'nfdicore:fileExtension', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'mwo:hasDocumentation', 'mwo:hasPostalCode', 'owl:annotatedProperty', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['NeXus Data Format', 'semantic resource', 'Elastic Constant Demo', 'Elastic Constant Demo Data', 'hardness data']</t>
+          <t>['Fiji', 'Phonon database at Kyoto university', 'Elastic Constant Demo', 'semantic expressivity', 'UDC', 'Elastic Constant Demo Data', 'semantic resource', 'has repository', 'TEMMETA', 'NeXus Data Format', 'Electronic Structure Common Data Format (ESCDF)', 'Metadata schemes for materials science data', 'hardness data']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1246648', 'http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1160004', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E422822', 'http://demo.fiz-karlsruhe.de/matwerk/E500501', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://demo.fiz-karlsruhe.de/matwerk/E1247418']</t>
         </is>
       </c>
     </row>
@@ -1711,27 +1711,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property', 'has related resource', 'has dataset']</t>
+          <t>['has repository', 'has annotated source ', 'has definition source', 'has documentation', 'has file Extension', 'has bibliographic citation', 'has annotated property', 'has related resource', 'has  description']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.w3.org/2002/07/owl#annotatedProperty', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'https://nfdi.fiz-karlsruhe.de/ontology/Dataset']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://www.w3.org/2002/07/owl#sameAs', 'http://www.geneontology.org/formats/oboInOwl#hasDbXref', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://purl.obolibrary.org/obo/IAO_0000115']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:hasRelatedResource', 'nfdicore:Dataset', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'owl:annotatedSource', 'ns2:IAO_0000119', 'mwo:hasDocumentation', 'nfdicore:fileExtension', 'dcterms:bibliographicCitation', 'owl:annotatedProperty', 'mwo:hasRelatedResource', 'dcterms:description', 'mwo:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'UDC', 'Research data infrastructure', 'NOMAD Metainfo', 'has repository', 'semantic resource', 'has format', 'Carolina Materials Database', 'object type', 'educational resource', 'hardness data', 'has creator', 'about material', 'provided resource']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://nfdi.fiz-karlsruhe.de/ontology/ProvidedResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://nfdi.fiz-karlsruhe.de/ontology/ObjectType', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
     </row>
@@ -1753,27 +1753,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['has dataset', 'has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model', 'has software']</t>
+          <t>['has format', 'has format', 'has documentation', 'has repository', 'has file Extension', 'has related resource', 'has instrument model', 'has definition source', 'related participant project is']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://nfdi.fiz-karlsruhe.de/ontology/fileExtension', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'https://nfdi.fiz-karlsruhe.de/ontology/Software']</t>
+          <t>['http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purl.obolibrary.org/obo/IAO_0000118', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'nfdicore:Software', 'mwo:description', 'dcterms:description']</t>
+          <t>['dcterms:format', 'mwo:hasFormat', 'mwo:hasDocumentation', 'mwo:hasRepository', 'nfdicore:fileExtension', 'mwo:hasRelatedResource', 'mwo:instrumentModel', 'ns2:IAO_0000119', 'mwo:relatedParticipantProject', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'semantic expressivity', 'UDC', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'semantic resource', 'Research data infrastructure', 'File Format', 'has format', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'hardness data', 'about material']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purl.org/dc/terms/FileFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/SemanticExpressivity', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
@@ -1795,27 +1795,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['has software', 'has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label', 'has programming Language ']</t>
+          <t>['has Version', 'uses software', 'has instrument model', 'has format', 'has format', 'has specification label', 'has specification label', 'has programming Language ', 'has documentation']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Software', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purl.org/dc/terms/format', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://purl.obolibrary.org/obo/BFO_0000179', 'http://purl.obolibrary.org/obo/BFO_0000180', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/keyword', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://www.ebi.ac.uk/swo/has_license', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool', 'http://www.w3.org/2002/07/owl#unionOf', 'http://purl.obolibrary.org/obo/IAO_0000117', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['nfdicore:Software', 'mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'nfdicore:programmingLanguage', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasVersion', 'ns3:SWO_0000082', 'mwo:instrumentModel', 'dcterms:format', 'mwo:hasFormat', 'ns2:BFO_0000179', 'ns2:BFO_0000180', 'nfdicore:programmingLanguage', 'mwo:hasDocumentation', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['https://pacemaker.readthedocs.io/en/latest/', 'matador', 'electronic lab notebook', 'Plant movement', 'Atomman', 'pacemaker']</t>
+          <t>['Phonon database at Kyoto university', 'pacemaker', 'Atomman', 'Pyrho', 'matador', 'eLabFTW', 'Plant movement', 'electronic lab notebook', 'software interface', 'Graphical Expression of Materials Data (GEMD)', 'Qe-tools']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://demo.fiz-karlsruhe.de/matwerk/E511556', 'http://demo.fiz-karlsruhe.de/matwerk/E275912', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E46754']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E527852', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1155441', 'http://demo.fiz-karlsruhe.de/matwerk/E531966', 'http://demo.fiz-karlsruhe.de/matwerk/E46754', 'http://purls.helmholtz-metadaten.de/mwo/ElectronicLabNotebook', 'http://demo.fiz-karlsruhe.de/matwerk/E510546', 'http://demo.fiz-karlsruhe.de/matwerk/E479732', 'http://demo.fiz-karlsruhe.de/matwerk/E577202', 'http://www.ebi.ac.uk/swo/SWO_9000050', 'http://demo.fiz-karlsruhe.de/matwerk/E511556']</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1837,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has ontology', 'has related Project', 'has contact point']</t>
+          <t>['has related task area', 'has discipline', 'has main task area ', 'has first element', 'related participant project is', 'has expertise in', 'has related Project', 'has contact point', 'has equivalent Class ']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/relatedTaskArea', 'http://purls.helmholtz-metadaten.de/mwo/hasDiscipline', 'http://purls.helmholtz-metadaten.de/mwo/mainTaskArea', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#first', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'https://nfdi.fiz-karlsruhe.de/ontology/Ontology', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/belongsTo', 'http://purl.org/dc/terms/isPartOf', 'http://purl.org/dc/elements/1.1/contributor', 'http://xmlns.com/foaf/0.1/depiction', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/description', 'https://schema.org/dateCreated', 'http://xmlns.com/foaf/0.1/surname', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:Ontology', 'nfdicore:relatedProject', 'mwo:hasContactPoint', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:relatedTaskArea', 'mwo:hasDiscipline', 'mwo:mainTaskArea', 'rdf:first', 'mwo:relatedParticipantProject', 'mwo:hasExpertiseIn', 'nfdicore:relatedProject', 'mwo:hasContactPoint', 'owl:equivalentClass', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Phonon database at Kyoto university', 'Materials Platform for Data Science', 'Research data infrastructure', 'semantic resource', 'has expertise in', 'Carolina Materials Database', 'Workshop: Simulation workflows in materials modelling', 'has topic', 'Metadata schemes for materials science data', 'educational resource', 'hardness data', 'resource', 'Diffusion Database (Kakusan)']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://purls.helmholtz-metadaten.de/mwo/hasExpertiseIn', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E1123752', 'http://demo.fiz-karlsruhe.de/matwerk/E1245333', 'http://demo.fiz-karlsruhe.de/matwerk/E1050077', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/hasTopic', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://nfdi.fiz-karlsruhe.de/ontology/Resource', 'http://demo.fiz-karlsruhe.de/matwerk/E1035642']</t>
         </is>
       </c>
     </row>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['http://purl.org/dc/terms/description', 'http://purls.helmholtz-metadaten.de/mwo/description', 'http://purl.org/dc/terms/bibliographicCitation', 'http://www.geneontology.org/formats/oboInOwl#hasDefinition', 'http://www.w3.org/2004/02/skos/core#definition', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'https://schema.org/citation', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purl.obolibrary.org/obo/IAO_0000600']</t>
+          <t>['http://purl.obolibrary.org/obo/IAO_0000115', 'http://www.w3.org/2002/07/owl#onProperty', 'http://www.w3.org/2002/07/owl#sameAs', 'http://xmlns.com/foaf/0.1/firstName', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#type', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://www.w3.org/1999/02/22-rdf-syntax-ns#rest', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://purls.helmholtz-metadaten.de/mwo/hasVersion']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600']</t>
+          <t>['dcterms:description', 'mwo:description', 'dcterms:bibliographicCitation', 'ns4:hasDefinition', 'skos:definition', 'mwo:hasDocumentation', 'schema:citation', 'ns2:IAO_0000119', 'ns2:IAO_0000600', 'rdf:type']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'UDC', 'Computational Materials Repository (CMR)', 'semantic resource', 'Research data infrastructure', 'glossary', 'has format', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'instrument model', 'hardness data', 'about material']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://purl.org/dc/elements/1.1/contributor', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/hasFormat', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'https://nfdi.fiz-karlsruhe.de/ontology/Glossary', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
@@ -1921,27 +1921,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['has dataset', 'has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository']</t>
+          <t>['has definition source', 'has annotated source ', 'related participant project is', 'has related resource', 'has related Project', 'has instrument model', 'has annotated target', 'has repository', 'has specification label']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource', 'http://nfdi.fiz-karlsruhe.de/ontology/relatedProject', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated', 'http://www.w3.org/2004/02/skos/core#prefLabel', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://purls.helmholtz-metadaten.de/mwo/requiredTool']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'mwo:description', 'dcterms:description']</t>
+          <t>['ns2:IAO_0000119', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:instrumentModel', 'owl:annotatedTarget', 'mwo:hasRepository', 'ns2:BFO_0000179', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944', 'De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Topological Quantum Chemistry Nature 547, 298—305 (2017) A Complete Catalogue of High-Quality Topological Materials Nature 566, 480-485 (2019) All Topological Bands of all Nonmagnetic Stoichiometric Materials Science 376, 6595 (2022)', 'The Abinit project: Impact, environment and recent developments Comput. Phys. Commun. 248, 107042 (2020) URL: https://doi.org/10.1016/j.cpc.2019.107042; ABINIT: Overview, and focus on selected capabilities J. Chem. Phys. 152, 124102 (2020)', 'Machine-learning predictions of polymer properties with Polymer Genome\nH. D. Tran, C. Kim, L. Chen, A. Chandrasekaran, R. Batra, S. Venkatram, D. Kamal, J. P. Lightstone, R. Gurnani, P. Shetty, M. Ramprasad, J. Laws, M. Shelton, R. Ramprasad, J. Appl. Phys., 128, 171104 (2020).\n\nPolymer Genome: A data-powered polymer informatics platform for property predictions\nC. Kim, A. Chandrasekaran, T. D. Huan, D. Das, R. Ramprasad, J. Phys. Chem. C 122, 31, 17575-17585 (2018).\n\nA polymer dataset for accelerated property prediction and design\nT. D. Huan, A. Mannodi-Kanakkithodi, C. Kim, V. Sharma, G. Pilania, R. Ramprasad, Sci. Data, 3 160012 (2016).', 'Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804_x000D_\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12']</t>
+          <t>['The Abinit project: Impact, environment and recent developments Comput. Phys. Commun. 248, 107042 (2020) URL: https://doi.org/10.1016/j.cpc.2019.107042; ABINIT: Overview, and focus on selected capabilities J. Chem. Phys. 152, 124102 (2020)', 'Dunn, A., Wang, Q., Ganose, A., Dopp, D., Jain, A. Benchmarking Materials Property Prediction Methods: The Matbench Test Set and Automatminer Reference Algorithm. npj  Computational Materials 6, 138 (2020). https://doi.org/10.1038/s41524-020-00406-3', 'De Geest, P., Droesbeke, B., Eguinoa, I., Gaignard, A., Huber, S., Leo, S., Pireddu, L., Rodríguez-Navas, L., Sirvent, R., &amp; Soiland-Reyes, S. (2022). ro-crate-py (Version 0.7.0) [Computer software]. https://doi.org/10.5281/zenodo.3956493', 'Bochkarev, A., Lysogorskiy, Y., Menon, S., Qamar, M., Mrovec, M., &amp; Drautz, R. (2022). Efficient parametrization of the atomic cluster expansion. Physical Review Materials, 6(1), 013804\r\nLysogorskiy, Y., Oord, C. V. D., Bochkarev, A., Menon, S., Rinaldi, M., Hammerschmidt, T., ... &amp; Drautz, R. (2021). Performant implementation of the atomic cluster expansion (PACE) and application to copper and silicon. npj Computational Materials, 7(1), 1-12', 'J. Magnus Rahm and Paul Erhart WulffPack: A Python package for Wulff constructions J. Open Source Softw. 5, 1944 (2020) doi: 10.21105/joss.01944']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E941507', 'http://demo.fiz-karlsruhe.de/matwerk/E945626', 'http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E892781', 'http://demo.fiz-karlsruhe.de/matwerk/E990122', 'http://demo.fiz-karlsruhe.de/matwerk/E985907']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E941507', 'http://demo.fiz-karlsruhe.de/matwerk/E892781', 'http://demo.fiz-karlsruhe.de/matwerk/E964967', 'http://demo.fiz-karlsruhe.de/matwerk/E937397', 'http://demo.fiz-karlsruhe.de/matwerk/E945626']</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://purls.helmholtz-metadaten.de/mwo/hasAuthor', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://www.ebi.ac.uk/swo/SWO_0000082', 'http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://nfdi.fiz-karlsruhe.de/ontology/programmingLanguage', 'http://purl.obolibrary.org/obo/IAO_0000119', 'http://purls.helmholtz-metadaten.de/mwo/hasOwner']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/hasAffiliation', 'http://nfdi.fiz-karlsruhe.de/ontology/semanticExpressivity', 'http://www.geneontology.org/formats/oboInOwl#hasBroadSynonym', 'http://purls.helmholtz-metadaten.de/mwo/hasContributor', 'http://purls.helmholtz-metadaten.de/mwo/conformsToSpecification', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://purl.obolibrary.org/obo/IAO_0000117', 'http://purls.helmholtz-metadaten.de/mwo/hasContactPoint', 'https://schema.org/operatingSystem']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'ns2:IAO_0000119', 'mwo:hasOwner', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasCreator', 'mwo:hasAuthor', 'mwo:hasContributor', 'ns3:SWO_0000082', 'mwo:usesTechnology', 'owl:annotatedSource', 'nfdicore:programmingLanguage', 'ns2:IAO_0000119', 'mwo:hasOwner', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'Carolina Materials Database', 'semantic resource', 'educational resource', 'hardness data']</t>
+          <t>['dateCreated', 'Phonon database at Kyoto university', 'The MatWerk ontology', 'Atomistictools', 'BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Research data infrastructure', 'NOMAD Metainfo', 'semantic resource', 'Carolina Materials Database', 'Electronic Structure Common Data Format (ESCDF)', 'educational resource', 'hardness data', 'has creator']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'https://schema.org/dateCreated', 'http://purls.helmholtz-metadaten.de/mwo/SemanticResource', 'http://purls.helmholtz-metadaten.de/mwo/EducationalResource', 'http://demo.fiz-karlsruhe.de/matwerk/E66342', 'http://demo.fiz-karlsruhe.de/matwerk/E1031331', 'http://purls.helmholtz-metadaten.de/mwo/', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1079247', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://demo.fiz-karlsruhe.de/matwerk/E1213904', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747']</t>
         </is>
       </c>
     </row>
@@ -2005,258 +2005,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['has dataset', 'has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published', 'has related resource']</t>
+          <t>['has repository', 'has bibliographic citation', 'has documentation', 'has annotated source ', 'related participant project is', 'has annotated target', 'has date Published', 'has related resource', 'has related Project']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['https://nfdi.fiz-karlsruhe.de/ontology/Dataset', 'http://purls.helmholtz-metadaten.de/mwo/hasRepository', 'http://purl.org/dc/terms/bibliographicCitation', 'http://purls.helmholtz-metadaten.de/mwo/hasDocumentation', 'http://www.w3.org/2002/07/owl#annotatedSource', 'http://purls.helmholtz-metadaten.de/mwo/relatedParticipantProject', 'http://www.w3.org/2002/07/owl#annotatedTarget', 'https://schema.org/datePublished', 'http://purls.helmholtz-metadaten.de/mwo/hasRelatedResource']</t>
+          <t>['http://purls.helmholtz-metadaten.de/mwo/usesTechnology', 'http://www.w3.org/2002/07/owl#sameAs', 'https://w3id.org/scholarlydata/ontology/conference-ontology.owl#duration', 'http://emmo.info/emmo#EMMO_967080e5_2f42_4eb2_a3a9_c58143e835f9', 'http://nfdi.fiz-karlsruhe.de/ontology/objectType', 'http://purls.helmholtz-metadaten.de/mwo/instrumentModel', 'http://www.w3.org/2002/07/owl#equivalentClass', 'http://purls.helmholtz-metadaten.de/mwo/hasLecturer', 'https://schema.org/dateCreated']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['nfdicore:Dataset', 'mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:hasRelatedResource', 'mwo:description', 'dcterms:description']</t>
+          <t>['mwo:hasRepository', 'dcterms:bibliographicCitation', 'mwo:hasDocumentation', 'owl:annotatedSource', 'mwo:relatedParticipantProject', 'owl:annotatedTarget', 'schema:datePublished', 'mwo:hasRelatedResource', 'nfdicore:relatedProject', 'mwo:description', 'dcterms:description', 'rdf:type']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Brunswick', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'BAM', 'bond order potentials (BOP)']</t>
+          <t>['BAM reference data: results of ASTM E139 -11 creep tests on a reference material of Nimonic 75 nickel-base alloy', 'Phonon database at Kyoto university', 'Computational Materials Repository (CMR)', 'NOMAD Metainfo', 'OpenBIS', 'acronym', 'Bundesanstalt für Materialforschung und -prüfung (BAM)', 'Crystallography Open Database (COD)', 'BAM', 'Electronic Structure Common Data Format (ESCDF)', 'has creator', 'about material', 'Materials Data Repository', 'bond order potentials (BOP)']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://www.wikidata.org/entity/Q2773', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E4571']</t>
+          <t>['http://demo.fiz-karlsruhe.de/matwerk/E4571', 'http://demo.fiz-karlsruhe.de/matwerk/E1074846', 'http://demo.fiz-karlsruhe.de/matwerk/E64191', 'http://demo.fiz-karlsruhe.de/matwerk/E1042847', 'http://demo.fiz-karlsruhe.de/matwerk/E551726', 'http://purls.helmholtz-metadaten.de/mwo/aboutMaterial', 'http://demo.fiz-karlsruhe.de/matwerk/E1156961', 'http://purls.helmholtz-metadaten.de/mwo/hasCreator', 'http://demo.fiz-karlsruhe.de/matwerk/E1173747', 'http://demo.fiz-karlsruhe.de/matwerk/E1153922', 'http://purl.obolibrary.org/obo/NCIT_C93495', 'http://demo.fiz-karlsruhe.de/matwerk/E1247968', 'http://demo.fiz-karlsruhe.de/matwerk/E1024166', 'http://demo.fiz-karlsruhe.de/matwerk/E1060241']</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4093E08A2E8D84C9AA963E02FD99654" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="84c502d4503dea49fce9d134f7dcc9af">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" xmlns:ns3="e2225dd1-523d-4404-be3e-841da2544242" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b8dc0315bcb7427c92a75c96c81d9d2" ns2:_="" ns3:_="">
-    <xsd:import namespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a"/>
-    <xsd:import namespace="e2225dd1-523d-4404-be3e-841da2544242"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c09d107b-18dc-489c-bc6f-5ed48cc8c44a" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="89a75c37-6363-466b-83d7-1b9f4a918caf" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e2225dd1-523d-4404-be3e-841da2544242" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{3a3b5da6-65bc-40f7-ae0d-c52f7365e2ec}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e2225dd1-523d-4404-be3e-841da2544242">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c09d107b-18dc-489c-bc6f-5ed48cc8c44a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e2225dd1-523d-4404-be3e-841da2544242" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D414EB1-F493-46DE-92F3-F20B2BF441E5}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6A17E4-9B02-417C-912D-C79C7993C489}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC756E3C-59E6-47D9-ADBD-A1771FFB85C1}"/>
 </file>